--- a/noise_amp_1_to_7_qubits.xlsx
+++ b/noise_amp_1_to_7_qubits.xlsx
@@ -511,35 +511,35 @@
         <v>100</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>99.8603</v>
+        <v>99.842</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>99.72369999999999</v>
+        <v>99.73399999999999</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>99.5762</v>
+        <v>99.566</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>99.41889999999999</v>
+        <v>99.366</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>99.2831</v>
+        <v>99.262</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>99.14570000000001</v>
+        <v>99.114</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>99.0376</v>
+        <v>99.018</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>98.8408</v>
+        <v>98.758</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>98.7264</v>
+        <v>98.56999999999999</v>
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>98.6395</t>
+          <t>98.572</t>
         </is>
       </c>
     </row>
@@ -548,38 +548,38 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>49.9675</v>
+        <v>50.206</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>50.0058</v>
+        <v>49.578</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>50.0269</v>
+        <v>50.186</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>49.9798</v>
+        <v>50.20400000000001</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>49.9831</v>
+        <v>49.95</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>50.024</v>
+        <v>49.58</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>49.9189</v>
+        <v>50.468</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>49.9967</v>
+        <v>50.304</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>50.0816</v>
+        <v>50.21400000000001</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>50.0457</v>
+        <v>50.606</v>
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>49.967600000000004</t>
+          <t>49.552</t>
         </is>
       </c>
     </row>
@@ -672,35 +672,35 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>2.002797908678424</v>
+        <v>2.003165000701108</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>2.005541310641302</v>
+        <v>2.005334188942588</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>2.008512074170334</v>
+        <v>2.008717835405661</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.011689930184301</v>
+        <v>2.012760904132198</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.014441531338163</v>
+        <v>2.014869738671395</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>2.017233223427743</v>
+        <v>2.017878402647456</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>2.019435042852411</v>
+        <v>2.019834777515199</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>2.023455900802098</v>
+        <v>2.025152392717552</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>2.025800596395696</v>
+        <v>2.029014913259612</v>
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>2.0275852979790043</t>
+          <t>2.0289737450797385</t>
         </is>
       </c>
     </row>
@@ -709,38 +709,38 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>4.002601691099215</v>
+        <v>3.98358761900968</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>3.999536053817757</v>
+        <v>4.034047359716003</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>3.997849157153452</v>
+        <v>3.985175148447774</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>4.001616653127864</v>
+        <v>3.983746315034659</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>4.00135245713051</v>
+        <v>4.004004004004004</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3.998080921157844</v>
+        <v>4.033884630899556</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>4.006498540632907</v>
+        <v>3.96290718871364</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>4.00026401742515</v>
+        <v>3.975826972010178</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>3.993482636337497</v>
+        <v>3.982952961325527</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>3.996347338532581</v>
+        <v>3.952100541437774</v>
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>4.002593680705097</t>
+          <t>4.036164029706168</t>
         </is>
       </c>
     </row>
@@ -830,38 +830,38 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>94.52719999999999</v>
+        <v>94.586</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>93.3978</v>
+        <v>93.44199999999999</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>92.34869999999999</v>
+        <v>92.34</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>91.2471</v>
+        <v>91.242</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>90.1383</v>
+        <v>90.026</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>89.17910000000001</v>
+        <v>89.226</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>88.0136</v>
+        <v>88.586</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>87.08110000000001</v>
+        <v>87.11199999999999</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>86.2308</v>
+        <v>85.538</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>84.9905</v>
+        <v>84.872</v>
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>83.9313</t>
+          <t>84.21600000000001</t>
         </is>
       </c>
     </row>
@@ -873,35 +873,35 @@
         <v>100</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>99.3403</v>
+        <v>99.386</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>98.66549999999999</v>
+        <v>98.708</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>98.0964</v>
+        <v>98.092</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>97.56529999999999</v>
+        <v>97.492</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>96.9288</v>
+        <v>96.874</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>96.0416</v>
+        <v>96.646</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>95.5423</v>
+        <v>95.65000000000001</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>95.3048</v>
+        <v>94.994</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>94.34269999999999</v>
+        <v>94.83799999999999</v>
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>93.71969999999999</t>
+          <t>93.998</t>
         </is>
       </c>
     </row>
@@ -910,38 +910,38 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>84.33629999999999</v>
+        <v>83.96599999999999</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>84.0052</v>
+        <v>84.15599999999999</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>83.6031</v>
+        <v>83.416</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>83.1544</v>
+        <v>83.37400000000001</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>82.8459</v>
+        <v>82.8</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>82.4141</v>
+        <v>82.39999999999999</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>82.02370000000001</v>
+        <v>81.962</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>81.5958</v>
+        <v>81.848</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>81.3403</v>
+        <v>81.33799999999999</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>80.9421</v>
+        <v>80.69800000000001</v>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>80.53529999999999</t>
+          <t>80.414</t>
         </is>
       </c>
     </row>
@@ -950,38 +950,38 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>49.9645</v>
+        <v>50.28</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>50.0466</v>
+        <v>49.71400000000001</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>50.0485</v>
+        <v>49.71</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>50.1407</v>
+        <v>49.62</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>50.1476</v>
+        <v>49.976</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>49.9875</v>
+        <v>50.21600000000001</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>50.0374</v>
+        <v>49.876</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>50.1181</v>
+        <v>50.072</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>50.1319</v>
+        <v>50.096</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>50.0577</v>
+        <v>50.038</v>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>50.190400000000004</t>
+          <t>50.461999999999996</t>
         </is>
       </c>
     </row>
@@ -1071,38 +1071,38 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>3.173689689316937</v>
+        <v>3.171716744549934</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>3.212067093657453</v>
+        <v>3.210547719440937</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>3.248556828628881</v>
+        <v>3.248862897985705</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>3.28777572109141</v>
+        <v>3.287959492339055</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>3.328218970182486</v>
+        <v>3.332370648479328</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3.364016905306288</v>
+        <v>3.362248671911774</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>3.408564130997936</v>
+        <v>3.386539633802181</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>3.445064428446586</v>
+        <v>3.443842409771329</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>3.479035333082843</v>
+        <v>3.507213168416376</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>3.529806272465746</v>
+        <v>3.534734659251579</v>
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>3.574351880645242</t>
+          <t>3.562268452550584</t>
         </is>
       </c>
     </row>
@@ -1114,35 +1114,35 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>2.013281618839484</v>
+        <v>2.012355865011168</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>2.02705099553542</v>
+        <v>2.026178222636464</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>2.038810802435155</v>
+        <v>2.038902255025894</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2.049909137777468</v>
+        <v>2.051450375415419</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.063370226392981</v>
+        <v>2.064537440386482</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>2.082430946589811</v>
+        <v>2.069407942387683</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>2.093313642229672</v>
+        <v>2.090956612650288</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>2.098530189455305</v>
+        <v>2.105396130281913</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>2.119930847855743</v>
+        <v>2.108859317994896</v>
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>2.1340230495829586</t>
+          <t>2.1277048447839317</t>
         </is>
       </c>
     </row>
@@ -1151,38 +1151,38 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>2.37145807914267</v>
+        <v>2.38191649000786</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>2.380804997785851</v>
+        <v>2.376538808878749</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>2.392255789558043</v>
+        <v>2.397621559413062</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>2.405164368932973</v>
+        <v>2.398829371266822</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>2.414120674650164</v>
+        <v>2.415458937198068</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.42676920575484</v>
+        <v>2.427184466019417</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>2.438319656391994</v>
+        <v>2.44015519387033</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>2.451106552052924</v>
+        <v>2.44355390479914</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>2.458805782619439</v>
+        <v>2.458875310433008</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>2.470902039853179</v>
+        <v>2.478376167934769</v>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>2.4833830630791716</t>
+          <t>2.487129106871938</t>
         </is>
       </c>
     </row>
@@ -1191,38 +1191,38 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>4.002842017832661</v>
+        <v>3.977724741447892</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>3.996275471260785</v>
+        <v>4.0230116265036</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>3.996123759952846</v>
+        <v>4.023335345001006</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>3.988775585502396</v>
+        <v>4.030632809351068</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>3.988226754620361</v>
+        <v>4.00192092204258</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>4.001000250062516</v>
+        <v>3.982794328500876</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>3.997010236343215</v>
+        <v>4.009944662763654</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>3.990574263589402</v>
+        <v>3.994248282473238</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>3.989475762937371</v>
+        <v>3.992334717342702</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>3.995389320723885</v>
+        <v>3.99696230864543</v>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3.984825783416749</t>
+          <t>3.963378383734295</t>
         </is>
       </c>
     </row>
@@ -1312,38 +1312,38 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>96.1455</v>
+        <v>96.28</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>88.0872</v>
+        <v>88.38200000000001</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>81.178</v>
+        <v>80.65000000000001</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>74.1146</v>
+        <v>74.248</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>68.08149999999999</v>
+        <v>68.002</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>62.9011</v>
+        <v>62.852</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>57.8114</v>
+        <v>57.37</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>53.31930000000001</v>
+        <v>51.94</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>49.8666</v>
+        <v>48.208</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45.5438</v>
+        <v>45.384</v>
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>43.0062</t>
+          <t>42.11</t>
         </is>
       </c>
     </row>
@@ -1352,38 +1352,38 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>94.52419999999999</v>
+        <v>94.506</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>88.63720000000001</v>
+        <v>88.68000000000001</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>83.19370000000001</v>
+        <v>83.91199999999999</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>77.9268</v>
+        <v>78.49199999999999</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>72.6596</v>
+        <v>73.054</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>69.6943</v>
+        <v>69.71599999999999</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>66.48089999999999</v>
+        <v>64.398</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>61.903</v>
+        <v>60.968</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>57.5324</v>
+        <v>57.08</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>56.0386</v>
+        <v>54.94</v>
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>52.7618</t>
+          <t>54.36</t>
         </is>
       </c>
     </row>
@@ -1392,38 +1392,38 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>94.9559</v>
+        <v>94.926</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>91.6919</v>
+        <v>91.71599999999999</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>88.5343</v>
+        <v>88.34399999999999</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>85.46420000000001</v>
+        <v>85.916</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>82.70060000000001</v>
+        <v>82.754</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>79.7337</v>
+        <v>80.524</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>77.294</v>
+        <v>77.51599999999999</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>75.58280000000001</v>
+        <v>74.86199999999999</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>73.27890000000001</v>
+        <v>72.98599999999999</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>71.22969999999999</v>
+        <v>70.52800000000001</v>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>68.1307</t>
+          <t>67.712</t>
         </is>
       </c>
     </row>
@@ -1435,35 +1435,35 @@
         <v>100</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>96.7099</v>
+        <v>96.73399999999999</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>93.5314</v>
+        <v>93.66800000000001</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>90.5625</v>
+        <v>90.43600000000001</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>87.9653</v>
+        <v>88.184</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>84.7616</v>
+        <v>84.556</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>82.38889999999999</v>
+        <v>82.026</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>80.10939999999999</v>
+        <v>79.42399999999999</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>77.2402</v>
+        <v>77.93600000000001</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>74.99890000000001</v>
+        <v>74.83199999999999</v>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>72.8839</t>
+          <t>72.662</t>
         </is>
       </c>
     </row>
@@ -1472,38 +1472,38 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>95.7555</v>
+        <v>95.746</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>92.8229</v>
+        <v>92.858</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>90.10899999999999</v>
+        <v>89.804</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>87.4897</v>
+        <v>87.36199999999999</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>84.866</v>
+        <v>84.836</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>82.8036</v>
+        <v>82.402</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>80.31319999999999</v>
+        <v>80.60599999999999</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>77.9385</v>
+        <v>77.51400000000001</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>76.3184</v>
+        <v>75.744</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>73.69929999999999</v>
+        <v>74.67</v>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>71.9823</t>
+          <t>72.194</t>
         </is>
       </c>
     </row>
@@ -1512,38 +1512,38 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>84.33450000000001</v>
+        <v>84.03399999999999</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>82.3309</v>
+        <v>82.306</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>80.1541</v>
+        <v>80.56999999999999</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>78.2846</v>
+        <v>78.428</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>76.2786</v>
+        <v>76.544</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>74.8064</v>
+        <v>74.654</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>72.9712</v>
+        <v>72.798</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>71.4945</v>
+        <v>71.39999999999999</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>69.90940000000001</v>
+        <v>69.95999999999999</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>68.5475</v>
+        <v>69.158</v>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>67.2662</t>
+          <t>66.56800000000001</t>
         </is>
       </c>
     </row>
@@ -1552,38 +1552,38 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>68.36579999999999</v>
+        <v>68.432</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>67.2269</v>
+        <v>67.28400000000001</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>66.15870000000001</v>
+        <v>66.256</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>65.16999999999999</v>
+        <v>64.748</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>64.164</v>
+        <v>64.05</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>63.2473</v>
+        <v>63.078</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>62.3769</v>
+        <v>62.572</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>61.62</v>
+        <v>61.462</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>60.8</v>
+        <v>60.766</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>59.9707</v>
+        <v>60.30799999999999</v>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>59.2752</t>
+          <t>59.218</t>
         </is>
       </c>
     </row>
@@ -1592,38 +1592,38 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>50.0965</v>
+        <v>50.068</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>50.0615</v>
+        <v>50.114</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>50.00790000000001</v>
+        <v>50.23</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>50.1152</v>
+        <v>50.364</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>50.0581</v>
+        <v>50.246</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>50.0381</v>
+        <v>50.024</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>50.1027</v>
+        <v>50.312</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>50.0941</v>
+        <v>49.996</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>49.9414</v>
+        <v>49.956</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>50.2223</v>
+        <v>49.784</v>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>50.1153</t>
+          <t>50.002</t>
         </is>
       </c>
     </row>
@@ -1713,38 +1713,38 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>4.16036111934516</v>
+        <v>4.154549231408392</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>4.540954871990482</v>
+        <v>4.525808422529474</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>4.927443395993989</v>
+        <v>4.959702417854928</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>5.397047275435609</v>
+        <v>5.387350501023596</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>5.875311207890543</v>
+        <v>5.882179935884238</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>6.359189266960355</v>
+        <v>6.364157067396423</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>6.919050567881075</v>
+        <v>6.972285166463308</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>7.501973956897409</v>
+        <v>7.701193685021178</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>8.021401098129811</v>
+        <v>8.29737802854298</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>8.782754183884524</v>
+        <v>8.813678829543452</v>
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>9.3009845092103</t>
+          <t>9.49893137022085</t>
         </is>
       </c>
     </row>
@@ -1753,38 +1753,38 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>3.173790415576117</v>
+        <v>3.174401625293632</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>3.384583448033106</v>
+        <v>3.382949932341001</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>3.606042284451827</v>
+        <v>3.575173991800934</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>3.849766704137729</v>
+        <v>3.822045558783061</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>4.128841887376204</v>
+        <v>4.106551318202973</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>4.304512707638932</v>
+        <v>4.303172872798211</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>4.51257428825422</v>
+        <v>4.658529768005217</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>4.846291779073712</v>
+        <v>4.920614092638761</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>5.214453073398641</v>
+        <v>5.255781359495445</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>5.353452798606675</v>
+        <v>5.460502366217692</v>
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>5.685931867373744</t>
+          <t>5.518763796909492</t>
         </is>
       </c>
     </row>
@@ -1793,38 +1793,38 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>2.106240897090123</v>
+        <v>2.10690432547458</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>2.181217752058797</v>
+        <v>2.18064459854333</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>2.259011479166831</v>
+        <v>2.263877569501041</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>2.340161143496341</v>
+        <v>2.327855114297686</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>2.418362140057025</v>
+        <v>2.416801604756265</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.508349668960552</v>
+        <v>2.48373155829318</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>2.587522964266308</v>
+        <v>2.580112492904691</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>2.6461046693163</v>
+        <v>2.671582378242633</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>2.729298611196401</v>
+        <v>2.740251555092757</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>2.807817525554649</v>
+        <v>2.835753176043557</v>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>2.9355342011750944</t>
+          <t>2.9536862003780717</t>
         </is>
       </c>
     </row>
@@ -1836,35 +1836,35 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>2.068040603909217</v>
+        <v>2.067525378874026</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>2.138319323777897</v>
+        <v>2.135200922406798</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>2.208419599723948</v>
+        <v>2.211508691229156</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>2.273623803931778</v>
+        <v>2.267985122017599</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.359559045605557</v>
+        <v>2.365296371635366</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>2.4275114730261</v>
+        <v>2.438251286177553</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>2.496585918756101</v>
+        <v>2.518130539887188</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>2.589325247733693</v>
+        <v>2.566208170806816</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>2.666705778351416</v>
+        <v>2.672653410305752</v>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2.7440902586167866</t>
+          <t>2.7524703421320633</t>
         </is>
       </c>
     </row>
@@ -1873,38 +1873,38 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>2.088652871114453</v>
+        <v>2.088860109038498</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>2.154640719046701</v>
+        <v>2.15382627237287</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>2.219534119788257</v>
+        <v>2.227072290766558</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>2.285983378614854</v>
+        <v>2.28932487809345</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>2.356656375933825</v>
+        <v>2.35748974491961</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.415353921810163</v>
+        <v>2.42712555520497</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>2.490250668632305</v>
+        <v>2.481204873086371</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>2.56612585564259</v>
+        <v>2.580179064427071</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>2.62060001257888</v>
+        <v>2.640473172792564</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>2.713729981153145</v>
+        <v>2.678451854827909</v>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>2.778460816061726</t>
+          <t>2.7703133224367678</t>
         </is>
       </c>
     </row>
@@ -1913,38 +1913,38 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>2.371508694543752</v>
+        <v>2.379989052050361</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>2.429221592379046</v>
+        <v>2.429956503778582</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>2.495193633263925</v>
+        <v>2.482313516197096</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>2.554780889217036</v>
+        <v>2.550109654715153</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>2.62196736699415</v>
+        <v>2.612876254180602</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.673568036959404</v>
+        <v>2.679025906180513</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>2.740807332207776</v>
+        <v>2.747328223302838</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>2.797417983201505</v>
+        <v>2.801120448179272</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>2.860845608745033</v>
+        <v>2.858776443682104</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>2.917684817097633</v>
+        <v>2.891928627201481</v>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2.973261459692981</t>
+          <t>3.004446580939791</t>
         </is>
       </c>
     </row>
@@ -1953,38 +1953,38 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>2.92543932785106</v>
+        <v>2.922609305588029</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>2.974999590937556</v>
+        <v>2.972474882587242</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>3.023034007621069</v>
+        <v>3.018594542381067</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>3.068896731624981</v>
+        <v>3.088898498795329</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>3.11701265507138</v>
+        <v>3.12256049960968</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>3.162190322748955</v>
+        <v>3.170677573797521</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>3.206315158335858</v>
+        <v>3.196317841846193</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>3.245699448231094</v>
+        <v>3.25404314861215</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>3.289473684210526</v>
+        <v>3.291314221768752</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>3.334961906397624</v>
+        <v>3.316309610665252</v>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>3.374092369152698</t>
+          <t>3.3773514809686245</t>
         </is>
       </c>
     </row>
@@ -1993,38 +1993,38 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>3.992294870899165</v>
+        <v>3.994567388351841</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>3.995086044165676</v>
+        <v>3.99090074629844</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>3.999368099840225</v>
+        <v>3.981684252438781</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>3.990805184854096</v>
+        <v>3.971090461440712</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>3.99535739470735</v>
+        <v>3.980416351550372</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>3.996954320807545</v>
+        <v>3.998080921157844</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>3.991800841072437</v>
+        <v>3.975194784544443</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>3.992486141082483</v>
+        <v>4.000320025602048</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>4.004693500782918</v>
+        <v>4.003523100328289</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>3.982294717685172</v>
+        <v>4.017354973485457</v>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3.9907972216069743</t>
+          <t>3.999840006399744</t>
         </is>
       </c>
     </row>
@@ -2039,7 +2039,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2058,14 +2058,30 @@
           <t>0.0 noise level</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>0.0005 noise level</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>0.001 noise level</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>99.9191</t>
+      <c r="B2" s="2" t="n">
+        <v>99.9191</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>59.31999999999999</v>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>36.356</t>
         </is>
       </c>
     </row>
@@ -2073,9 +2089,15 @@
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>96.13199999999999</t>
+      <c r="B3" s="2" t="n">
+        <v>96.13200000000001</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>60.55199999999999</v>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>41.314</t>
         </is>
       </c>
     </row>
@@ -2083,9 +2105,15 @@
       <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>99.97789999999999</t>
+      <c r="B4" s="2" t="n">
+        <v>99.97790000000001</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>71.786</v>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>53.513999999999996</t>
         </is>
       </c>
     </row>
@@ -2093,9 +2121,15 @@
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>94.5269</t>
+      <c r="B5" s="2" t="n">
+        <v>94.5269</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>69.346</v>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>51.498</t>
         </is>
       </c>
     </row>
@@ -2103,9 +2137,15 @@
       <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>88.1413</t>
+      <c r="B6" s="2" t="n">
+        <v>88.1413</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>74.60799999999999</v>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>62.861999999999995</t>
         </is>
       </c>
     </row>
@@ -2113,9 +2153,15 @@
       <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>94.88600000000001</t>
+      <c r="B7" s="2" t="n">
+        <v>94.886</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>80.742</v>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>68.522</t>
         </is>
       </c>
     </row>
@@ -2123,9 +2169,15 @@
       <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>98.775</t>
+      <c r="B8" s="2" t="n">
+        <v>98.77500000000001</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>83.852</v>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>71.916</t>
         </is>
       </c>
     </row>
@@ -2133,9 +2185,15 @@
       <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>100.0</t>
+      <c r="B9" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>85.258</v>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>73.546</t>
         </is>
       </c>
     </row>
@@ -2143,9 +2201,15 @@
       <c r="A10" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>98.8747</t>
+      <c r="B10" s="2" t="n">
+        <v>98.8747</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>84.51600000000001</v>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>73.31800000000001</t>
         </is>
       </c>
     </row>
@@ -2153,9 +2217,15 @@
       <c r="A11" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>95.6754</t>
+      <c r="B11" s="2" t="n">
+        <v>95.6754</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>82.44</v>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>72.886</t>
         </is>
       </c>
     </row>
@@ -2163,9 +2233,15 @@
       <c r="A12" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>90.7824</t>
+      <c r="B12" s="2" t="n">
+        <v>90.7824</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>79.596</v>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>70.404</t>
         </is>
       </c>
     </row>
@@ -2173,9 +2249,15 @@
       <c r="A13" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="inlineStr">
-        <is>
-          <t>84.36059999999999</t>
+      <c r="B13" s="2" t="n">
+        <v>84.36059999999999</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>74.38800000000001</v>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>67.216</t>
         </is>
       </c>
     </row>
@@ -2183,9 +2265,15 @@
       <c r="A14" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>76.8334</t>
+      <c r="B14" s="2" t="n">
+        <v>76.8334</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>69.616</v>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>63.970000000000006</t>
         </is>
       </c>
     </row>
@@ -2193,9 +2281,15 @@
       <c r="A15" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>68.32209999999999</t>
+      <c r="B15" s="2" t="n">
+        <v>68.32209999999999</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>63.862</v>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>59.69</t>
         </is>
       </c>
     </row>
@@ -2203,9 +2297,15 @@
       <c r="A16" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>59.345800000000004</t>
+      <c r="B16" s="2" t="n">
+        <v>59.3458</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>56.62</v>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>54.94</t>
         </is>
       </c>
     </row>
@@ -2213,9 +2313,15 @@
       <c r="A17" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>50.0297</t>
+      <c r="B17" s="2" t="n">
+        <v>50.0297</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>50.046</v>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>50.068</t>
         </is>
       </c>
     </row>
@@ -2230,7 +2336,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2249,14 +2355,30 @@
           <t>0.0 noise level oracle calls</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>0.0005 noise level oracle calls</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>0.001 noise level oracle calls</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>5.004048275054519</t>
+      <c r="B2" s="2" t="n">
+        <v>5.004048275054519</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>8.428860418071476</v>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>13.752888106502365</t>
         </is>
       </c>
     </row>
@@ -2264,9 +2386,15 @@
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>4.160945366787334</t>
+      <c r="B3" s="2" t="n">
+        <v>4.160945366787334</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>6.605892456070815</v>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>9.681948007939198</t>
         </is>
       </c>
     </row>
@@ -2274,9 +2402,15 @@
       <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>3.0006631465553886</t>
+      <c r="B4" s="2" t="n">
+        <v>3.000663146555389</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>4.17908784442649</v>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>5.606009642336584</t>
         </is>
       </c>
     </row>
@@ -2284,9 +2418,15 @@
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>3.173699761655148</t>
+      <c r="B5" s="2" t="n">
+        <v>3.173699761655148</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>4.326132725752026</v>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>5.825468950250495</t>
         </is>
       </c>
     </row>
@@ -2294,9 +2434,15 @@
       <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>2.2690838460517373</t>
+      <c r="B6" s="2" t="n">
+        <v>2.269083846051737</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>2.68067767531632</v>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3.181572333046992</t>
         </is>
       </c>
     </row>
@@ -2304,9 +2450,15 @@
       <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>2.1077925089054235</t>
+      <c r="B7" s="2" t="n">
+        <v>2.107792508905423</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>2.477025587674321</v>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2.9187706138174603</t>
         </is>
       </c>
     </row>
@@ -2314,9 +2466,15 @@
       <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>2.0248038471273095</t>
+      <c r="B8" s="2" t="n">
+        <v>2.024803847127309</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>2.385154796546296</v>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2.7810223037988764</t>
         </is>
       </c>
     </row>
@@ -2324,9 +2482,15 @@
       <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>2.0</t>
+      <c r="B9" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>2.345820920030965</v>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2.719386506404155</t>
         </is>
       </c>
     </row>
@@ -2334,9 +2498,15 @@
       <c r="A10" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>2.0227621423882955</t>
+      <c r="B10" s="2" t="n">
+        <v>2.022762142388296</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>2.366415826589048</v>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2.7278430944652063</t>
         </is>
       </c>
     </row>
@@ -2344,9 +2514,15 @@
       <c r="A11" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>2.090401503416761</t>
+      <c r="B11" s="2" t="n">
+        <v>2.090401503416761</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>2.42600679281902</v>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2.744011195565678</t>
         </is>
       </c>
     </row>
@@ -2354,9 +2530,15 @@
       <c r="A12" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>2.2030701986288093</t>
+      <c r="B12" s="2" t="n">
+        <v>2.203070198628809</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>2.512689079853259</v>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2.840747684790637</t>
         </is>
       </c>
     </row>
@@ -2364,9 +2546,15 @@
       <c r="A13" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="inlineStr">
-        <is>
-          <t>2.370774982634073</t>
+      <c r="B13" s="2" t="n">
+        <v>2.370774982634073</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>2.688605689089638</v>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2.9754820280885506</t>
         </is>
       </c>
     </row>
@@ -2374,9 +2562,15 @@
       <c r="A14" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>2.6030346177573818</t>
+      <c r="B14" s="2" t="n">
+        <v>2.603034617757382</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>2.872902780969892</v>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>3.1264655307175238</t>
         </is>
       </c>
     </row>
@@ -2384,9 +2578,15 @@
       <c r="A15" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>2.927310489578043</t>
+      <c r="B15" s="2" t="n">
+        <v>2.927310489578043</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>3.131752842065704</v>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>3.3506449991623386</t>
         </is>
       </c>
     </row>
@@ -2394,9 +2594,15 @@
       <c r="A16" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>3.3700784217248736</t>
+      <c r="B16" s="2" t="n">
+        <v>3.370078421724874</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>3.532320734722713</v>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>3.6403349108117946</t>
         </is>
       </c>
     </row>
@@ -2404,9 +2610,15 @@
       <c r="A17" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>3.9976254105061595</t>
+      <c r="B17" s="2" t="n">
+        <v>3.99762541050616</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>3.996323382488111</v>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3.9945673883518413</t>
         </is>
       </c>
     </row>

--- a/noise_amp_1_to_7_qubits.xlsx
+++ b/noise_amp_1_to_7_qubits.xlsx
@@ -2039,7 +2039,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2068,6 +2068,46 @@
           <t>0.001 noise level</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>0.0015 noise level</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>0.002 noise level</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>0.0025 noise level</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>0.003 noise level</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>0.0035 noise level</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>0.004 noise level</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>0.0045000000000000005 noise level</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>0.005 noise level</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -2079,9 +2119,33 @@
       <c r="C2" s="2" t="n">
         <v>59.31999999999999</v>
       </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>36.356</t>
+      <c r="D2" s="2" t="n">
+        <v>36.356</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>23.316</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>15.614</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>10.676</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>8.294</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>4.604</v>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>4.1579999999999995</t>
         </is>
       </c>
     </row>
@@ -2095,9 +2159,33 @@
       <c r="C3" s="2" t="n">
         <v>60.55199999999999</v>
       </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>41.314</t>
+      <c r="D3" s="2" t="n">
+        <v>41.314</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>28.19</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>21.832</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>15.674</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>13.134</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>11.062</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>10.414</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>8.482000000000001</v>
+      </c>
+      <c r="L3" s="2" t="inlineStr">
+        <is>
+          <t>7.974</t>
         </is>
       </c>
     </row>
@@ -2111,9 +2199,33 @@
       <c r="C4" s="2" t="n">
         <v>71.786</v>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>53.513999999999996</t>
+      <c r="D4" s="2" t="n">
+        <v>53.514</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>39.704</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>31.318</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>25.192</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>20.716</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>18.256</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>16.042</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>14.558</v>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>12.464</t>
         </is>
       </c>
     </row>
@@ -2127,9 +2239,33 @@
       <c r="C5" s="2" t="n">
         <v>69.346</v>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>51.498</t>
+      <c r="D5" s="2" t="n">
+        <v>51.498</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>39.674</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>30.674</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>22.604</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>20.08</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>17.662</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>16.492</v>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>14.746</t>
         </is>
       </c>
     </row>
@@ -2143,9 +2279,33 @@
       <c r="C6" s="2" t="n">
         <v>74.60799999999999</v>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>62.861999999999995</t>
+      <c r="D6" s="2" t="n">
+        <v>62.862</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>53.584</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>46.662</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>42.014</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>36.168</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>32.928</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>29.956</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>27.866</v>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>25.016</t>
         </is>
       </c>
     </row>
@@ -2159,9 +2319,33 @@
       <c r="C7" s="2" t="n">
         <v>80.742</v>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>68.522</t>
+      <c r="D7" s="2" t="n">
+        <v>68.52200000000001</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>59.41800000000001</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>51.74999999999999</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>45.63</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>40.02800000000001</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>36.206</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>33.906</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>30.162</v>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>28.402</t>
         </is>
       </c>
     </row>
@@ -2175,9 +2359,33 @@
       <c r="C8" s="2" t="n">
         <v>83.852</v>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>71.916</t>
+      <c r="D8" s="2" t="n">
+        <v>71.916</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>61.63999999999999</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>54.272</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>48.518</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>43.56</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>39.058</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>36.462</v>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>33.066</v>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>30.938</t>
         </is>
       </c>
     </row>
@@ -2191,9 +2399,33 @@
       <c r="C9" s="2" t="n">
         <v>85.258</v>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>73.546</t>
+      <c r="D9" s="2" t="n">
+        <v>73.54600000000001</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>64.568</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>56.006</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>50.58200000000001</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>45.068</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>41.418</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>38.584</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>36.208</v>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>34.03</t>
         </is>
       </c>
     </row>
@@ -2207,9 +2439,33 @@
       <c r="C10" s="2" t="n">
         <v>84.51600000000001</v>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>73.31800000000001</t>
+      <c r="D10" s="2" t="n">
+        <v>73.31800000000001</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>64.818</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>57.582</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>51.694</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>47.114</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>43.33600000000001</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>40.548</v>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>38.638</v>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>35.738</t>
         </is>
       </c>
     </row>
@@ -2223,9 +2479,33 @@
       <c r="C11" s="2" t="n">
         <v>82.44</v>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>72.886</t>
+      <c r="D11" s="2" t="n">
+        <v>72.886</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>64.02600000000001</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>57.906</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>52.504</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>48.416</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>45.162</v>
+      </c>
+      <c r="J11" s="2" t="n">
+        <v>42.608</v>
+      </c>
+      <c r="K11" s="2" t="n">
+        <v>39.94</v>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>38.504</t>
         </is>
       </c>
     </row>
@@ -2239,9 +2519,33 @@
       <c r="C12" s="2" t="n">
         <v>79.596</v>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>70.404</t>
+      <c r="D12" s="2" t="n">
+        <v>70.404</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>63.426</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>57.418</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>53.118</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>49.652</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>46.158</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <v>43.676</v>
+      </c>
+      <c r="K12" s="2" t="n">
+        <v>42.172</v>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>41.17</t>
         </is>
       </c>
     </row>
@@ -2255,9 +2559,33 @@
       <c r="C13" s="2" t="n">
         <v>74.38800000000001</v>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>67.216</t>
+      <c r="D13" s="2" t="n">
+        <v>67.21599999999999</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>61.87</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>56.93</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>52.532</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>50.47000000000001</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <v>47.402</v>
+      </c>
+      <c r="J13" s="2" t="n">
+        <v>45.442</v>
+      </c>
+      <c r="K13" s="2" t="n">
+        <v>44.008</v>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>43.05</t>
         </is>
       </c>
     </row>
@@ -2271,9 +2599,33 @@
       <c r="C14" s="2" t="n">
         <v>69.616</v>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>63.970000000000006</t>
+      <c r="D14" s="2" t="n">
+        <v>63.97000000000001</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>58.996</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>55.28999999999999</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>52.476</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>50.318</v>
+      </c>
+      <c r="I14" s="2" t="n">
+        <v>48.774</v>
+      </c>
+      <c r="J14" s="2" t="n">
+        <v>46.996</v>
+      </c>
+      <c r="K14" s="2" t="n">
+        <v>45.882</v>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>44.348</t>
         </is>
       </c>
     </row>
@@ -2287,9 +2639,33 @@
       <c r="C15" s="2" t="n">
         <v>63.862</v>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>59.69</t>
+      <c r="D15" s="2" t="n">
+        <v>59.69</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>56.46</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>53.904</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>51.91</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>50.376</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <v>49.18</v>
+      </c>
+      <c r="J15" s="2" t="n">
+        <v>47.918</v>
+      </c>
+      <c r="K15" s="2" t="n">
+        <v>47.794</v>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>46.358</t>
         </is>
       </c>
     </row>
@@ -2303,9 +2679,33 @@
       <c r="C16" s="2" t="n">
         <v>56.62</v>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>54.94</t>
+      <c r="D16" s="2" t="n">
+        <v>54.94</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>53.106</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>51.878</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>51.44800000000001</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>49.93</v>
+      </c>
+      <c r="I16" s="2" t="n">
+        <v>49.602</v>
+      </c>
+      <c r="J16" s="2" t="n">
+        <v>49.53</v>
+      </c>
+      <c r="K16" s="2" t="n">
+        <v>48.42</v>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>47.924</t>
         </is>
       </c>
     </row>
@@ -2319,9 +2719,33 @@
       <c r="C17" s="2" t="n">
         <v>50.046</v>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>50.068</t>
+      <c r="D17" s="2" t="n">
+        <v>50.068</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>49.682</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>49.994</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>50.218</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>49.818</v>
+      </c>
+      <c r="I17" s="2" t="n">
+        <v>50.392</v>
+      </c>
+      <c r="J17" s="2" t="n">
+        <v>49.842</v>
+      </c>
+      <c r="K17" s="2" t="n">
+        <v>50.32</v>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>50.205999999999996</t>
         </is>
       </c>
     </row>
@@ -2336,7 +2760,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2365,6 +2789,46 @@
           <t>0.001 noise level oracle calls</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>0.0015 noise level oracle calls</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>0.002 noise level oracle calls</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>0.0025 noise level oracle calls</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>0.003 noise level oracle calls</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>0.0035 noise level oracle calls</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>0.004 noise level oracle calls</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>0.0045000000000000005 noise level oracle calls</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>0.005 noise level oracle calls</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -2376,9 +2840,33 @@
       <c r="C2" s="2" t="n">
         <v>8.428860418071476</v>
       </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>13.752888106502365</t>
+      <c r="D2" s="2" t="n">
+        <v>13.75288810650236</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>21.44450162978212</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>32.0225438708851</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>46.83402023229674</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>60.28454304316373</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>78.36990595611285</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>96.33911368015416</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>108.6012163336229</v>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>120.25012025012025</t>
         </is>
       </c>
     </row>
@@ -2392,9 +2880,33 @@
       <c r="C3" s="2" t="n">
         <v>6.605892456070815</v>
       </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>9.681948007939198</t>
+      <c r="D3" s="2" t="n">
+        <v>9.681948007939198</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>14.18942887548776</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>18.32172957127153</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>25.51996937603675</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>30.45530683721638</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>36.15982643283312</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>38.40983291722681</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>47.15868898844612</v>
+      </c>
+      <c r="L3" s="2" t="inlineStr">
+        <is>
+          <t>50.16302984700276</t>
         </is>
       </c>
     </row>
@@ -2408,9 +2920,33 @@
       <c r="C4" s="2" t="n">
         <v>4.17908784442649</v>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>5.606009642336584</t>
+      <c r="D4" s="2" t="n">
+        <v>5.606009642336584</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>7.555913761837599</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>9.579155757072613</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>11.90854239441092</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>14.48156014674648</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>16.43295354951797</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>18.70091011095873</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>20.60722626734442</v>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>24.069319640564828</t>
         </is>
       </c>
     </row>
@@ -2424,9 +2960,33 @@
       <c r="C5" s="2" t="n">
         <v>4.326132725752026</v>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>5.825468950250495</t>
+      <c r="D5" s="2" t="n">
+        <v>5.825468950250495</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>7.561627262186823</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>9.780269935450216</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>12.34567901234568</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>13.27198725889223</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>14.9402390438247</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>16.98561884271317</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>18.19063788503517</v>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>20.344500203445</t>
         </is>
       </c>
     </row>
@@ -2440,9 +3000,33 @@
       <c r="C6" s="2" t="n">
         <v>2.68067767531632</v>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3.181572333046992</t>
+      <c r="D6" s="2" t="n">
+        <v>3.181572333046992</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>3.73245744998507</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>4.286142900004286</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>4.760317989241681</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>5.529750055297501</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>6.073858114674441</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>6.676458806249165</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>7.177205196296562</v>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>7.994883274704189</t>
         </is>
       </c>
     </row>
@@ -2456,9 +3040,33 @@
       <c r="C7" s="2" t="n">
         <v>2.477025587674321</v>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>2.9187706138174603</t>
+      <c r="D7" s="2" t="n">
+        <v>2.91877061381746</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>3.365983372042142</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>3.864734299516908</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>4.383081306158229</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>4.9965024482862</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>5.523946307241894</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>5.898661003952103</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>6.630860022544924</v>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>7.041757622702627</t>
         </is>
       </c>
     </row>
@@ -2472,9 +3080,33 @@
       <c r="C8" s="2" t="n">
         <v>2.385154796546296</v>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>2.7810223037988764</t>
+      <c r="D8" s="2" t="n">
+        <v>2.781022303798876</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>3.244646333549643</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>3.685141509433961</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>4.1221814584278</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>4.591368227731864</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>5.120589891955554</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>5.48516263507213</v>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>6.048509042521019</v>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>6.464541987200207</t>
         </is>
       </c>
     </row>
@@ -2488,9 +3120,33 @@
       <c r="C9" s="2" t="n">
         <v>2.345820920030965</v>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>2.719386506404155</t>
+      <c r="D9" s="2" t="n">
+        <v>2.719386506404155</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>3.097509602279767</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>3.571045959361497</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>3.953975722589064</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>4.437738528445904</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>4.828818388140422</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>5.183495749533486</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>5.52364118426867</v>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>5.877167205406994</t>
         </is>
       </c>
     </row>
@@ -2504,9 +3160,33 @@
       <c r="C10" s="2" t="n">
         <v>2.366415826589048</v>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2.7278430944652063</t>
+      <c r="D10" s="2" t="n">
+        <v>2.727843094465206</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>3.085562652349656</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>3.473307630856865</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>3.868920957944829</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>4.245022710871504</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>4.615100609193281</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>4.932425766992207</v>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>5.176251358765982</v>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>5.59628406737926</t>
         </is>
       </c>
     </row>
@@ -2520,9 +3200,33 @@
       <c r="C11" s="2" t="n">
         <v>2.42600679281902</v>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>2.744011195565678</t>
+      <c r="D11" s="2" t="n">
+        <v>2.744011195565678</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>3.123730984287633</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>3.453873519151728</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>3.809233582203261</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>4.130865829477859</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>4.428501837828263</v>
+      </c>
+      <c r="J11" s="2" t="n">
+        <v>4.693954187007135</v>
+      </c>
+      <c r="K11" s="2" t="n">
+        <v>5.007511266900351</v>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>5.194265530853937</t>
         </is>
       </c>
     </row>
@@ -2536,9 +3240,33 @@
       <c r="C12" s="2" t="n">
         <v>2.512689079853259</v>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>2.840747684790637</t>
+      <c r="D12" s="2" t="n">
+        <v>2.840747684790637</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>3.153280988868918</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>3.483228255947612</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>3.765202003087466</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>4.028035124466285</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>4.332943368430175</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <v>4.579173917025368</v>
+      </c>
+      <c r="K12" s="2" t="n">
+        <v>4.742483164184767</v>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>4.857906242409522</t>
         </is>
       </c>
     </row>
@@ -2552,9 +3280,33 @@
       <c r="C13" s="2" t="n">
         <v>2.688605689089638</v>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>2.9754820280885506</t>
+      <c r="D13" s="2" t="n">
+        <v>2.975482028088551</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>3.23258445126879</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>3.513086246267346</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>3.807203228508338</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>3.96275014860313</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <v>4.219231256065145</v>
+      </c>
+      <c r="J13" s="2" t="n">
+        <v>4.401214735266934</v>
+      </c>
+      <c r="K13" s="2" t="n">
+        <v>4.544628249409199</v>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>4.645760743321719</t>
         </is>
       </c>
     </row>
@@ -2568,9 +3320,33 @@
       <c r="C14" s="2" t="n">
         <v>2.872902780969892</v>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>3.1264655307175238</t>
+      <c r="D14" s="2" t="n">
+        <v>3.126465530717524</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>3.390060343074107</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>3.617290649303672</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>3.811266102599284</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>3.974720775865496</v>
+      </c>
+      <c r="I14" s="2" t="n">
+        <v>4.100545372534547</v>
+      </c>
+      <c r="J14" s="2" t="n">
+        <v>4.255681334581666</v>
+      </c>
+      <c r="K14" s="2" t="n">
+        <v>4.35900788980428</v>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>4.509786236132407</t>
         </is>
       </c>
     </row>
@@ -2584,9 +3360,33 @@
       <c r="C15" s="2" t="n">
         <v>3.131752842065704</v>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>3.3506449991623386</t>
+      <c r="D15" s="2" t="n">
+        <v>3.350644999162339</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>3.542330853701736</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>3.710299792223212</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>3.852822192255827</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>3.970144513260283</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <v>4.06669377795852</v>
+      </c>
+      <c r="J15" s="2" t="n">
+        <v>4.173796903042698</v>
+      </c>
+      <c r="K15" s="2" t="n">
+        <v>4.184625685232456</v>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>4.314249967643125</t>
         </is>
       </c>
     </row>
@@ -2600,9 +3400,33 @@
       <c r="C16" s="2" t="n">
         <v>3.532320734722713</v>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>3.6403349108117946</t>
+      <c r="D16" s="2" t="n">
+        <v>3.640334910811795</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>3.766052800060257</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>3.855198735494815</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>3.887420307883688</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>4.005607850991388</v>
+      </c>
+      <c r="I16" s="2" t="n">
+        <v>4.032095480020967</v>
+      </c>
+      <c r="J16" s="2" t="n">
+        <v>4.037956793862306</v>
+      </c>
+      <c r="K16" s="2" t="n">
+        <v>4.130524576621231</v>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>4.173274351055839</t>
         </is>
       </c>
     </row>
@@ -2616,9 +3440,33 @@
       <c r="C17" s="2" t="n">
         <v>3.996323382488111</v>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>3.9945673883518413</t>
+      <c r="D17" s="2" t="n">
+        <v>3.994567388351841</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>4.025602834024395</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>4.000480057606913</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>3.982635708311761</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>4.014613192018949</v>
+      </c>
+      <c r="I17" s="2" t="n">
+        <v>3.968883949833307</v>
+      </c>
+      <c r="J17" s="2" t="n">
+        <v>4.012680069018097</v>
+      </c>
+      <c r="K17" s="2" t="n">
+        <v>3.97456279809221</v>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>3.98358761900968</t>
         </is>
       </c>
     </row>
